--- a/500all/speech_level/speeches_CHRG-114hhrg22560.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg22560.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="303">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>400381</t>
   </si>
   <si>
-    <t>Lamar Smith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Smith. The Committee on Science, Space, and Technology will come to order. Without objection, the Chair is authorized to declare recesses of the Committee at any time.    Welcome to today's hearing entitled ``Protecting the 2016 Elections from Cyber and Voting Machine Attacks.'' I'll recognize myself for an opening statement and then the Ranking Member.    We are here today to discuss the subject of election security. It's hard to imagine a more bipartisan issue. Election security is fundamental to the fairness of elections and democracy in the United States. Elections are a key component of democracy, and voting is the very essence of what President Abraham Lincoln meant when he said a government by the people.    Voting is the means by which Americans express their opinions about their government. It provides Americans with the opportunity to affirm policies they like and change what they don't. When our citizens vote, they not only elect their leaders, they choose a direction and set priorities for our nation. Elections with integrity strengthen democracy. They confer legitimacy and boost public trust in government.    Concerns with earlier versions of voting and election systems led to the passage of the 2002 Help America Vote Act. This act requires the National Institute of Standards and Technology, over which we have jurisdiction, to work with the Election Assistance Commission on technical, voluntary guidelines for voting.    Today, we will discuss the current technical voluntary guidelines that are in place for States to protect their voting and election systems. Though these guidelines are voluntary, I hope to hear whether they are sufficient to safeguard our elections and whether States effectively use them.    This discussion is timely as many concerns have been raised in recent months about the vulnerabilities of electronic voting machines, voting over the Internet, and online voter registration. In response to these concerns, our discussion today will review the security of the election system in its entirety. We will examine what guidelines are in place, how we currently protect systems from potential technical vulnerabilities, and what kind of work--including research and development in my home State of Texas--is underway to protect future voting and election systems.    Last year, hackers from China infiltrated the Office of Personnel Management's database and stole confidential records and personal information on more than 22 million current and former federal employees, including those involved in our national security effort with the highest security clearances. The attacks on voter registration databases in Illinois and Arizona are the latest instances of such attacks, this time with alleged ties to Russia. We have yet to take decisive steps to defend ourselves and deter attackers.    The President says we are more technologically advanced, both offensively and defensively, in cyber warfare than our adversaries. So why won't he take the necessary steps to prevent cyber attacks on our elections systems by foreign governments? If we are attacked repeatedly and do nothing, we will have surrendered unilaterally and put at risk our economy, our national security, and our very freedoms.    This committee has held more than a half-a-dozen hearings on cybersecurity issues in this Congress. We know it isn't enough to respond to cyber attacks with diplomatic protest. We are going to hear from witnesses today about how the Federal Government can help States keep our election systems secure. But the single most important way to protect our election systems, to protect each American's right to vote and be heard, is for this Administration--and for the next Administration--to take decisive steps to deter and, if necessary, sanction foreign governments that attack us in cyber space.</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>400204</t>
   </si>
   <si>
-    <t>Eddie Bernice Johnson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Johnson. Thank you, Mr. Chairman, and good morning.    Ensuring that our elections are fair, accurate, and freely accessible to all American citizens is fundamental to our democracy. Every instance of malfunctioning voting technology and without question every cyber attack on our election system is significant. And all efforts to improve voting security, reliability, privacy, and access are welcome and important.    I am confident by the testimony of today's experts and many others that we are in a much better place today than we were 10 or 15 years ago. I'm deeply concerned, however, by some of the rhetoric in recent weeks that seems to--seems intended to erode public confidence in our election system. Prominent voices have suggested that the U.S. election system is riddled with fraud and somehow rigged. Those conspirator allegations, like many others, that have been floated in the public sphere this election cycle are not supported by actual facts, and they threaten the election process we have relied upon for more than 2 centuries.    I'm eager to hear from the distinguished panel today about the challenges of securing our election system in the digital age and what actions have been taken at the federal, state, and local levels to strengthen cybersecurity. However, given the reckless rhetoric, as well as other serious threats our election system is facing, I want to take this opportunity to put the cybersecurity challenges in context.    The U.S. election system is complex and highly decentralized, encompassing approximately 10,000 local, county, and state election offices. Further, there are few connections between individual voting systems and the Internet. And at least 75 percent of the voters will be able to verify their vote with a paper ballot this fall. This compartmentalization and paper trail provides a strong firewall against any cyber threats.    The recently publicized attacks against voter registration rolls in Arizona and Illinois are serious but have not resulted in any changes to voter data or to any voters. In Arizona the cybersecurity firewalls worked to contain the threat. What I find most concerning are reports that these recent threats may be linked to the Russian intelligence operation. So we must be vigilant, and I hope these incidents will lead to improved cybersecurity protocols and practices.    While security of the election system is important, voter access is fundamental to our democracy. Baseless allegations of widespread voter fraud have been used as an excuse to disenfranchise large numbers of minority and young voters through discriminatory voter ID restrictions.    News21, a journalism program established by the Carnegie Corporation of New York and the John S. and James L. Knight Foundation found voter impersonation fraud to be extraordinarily rare. An analysis of 2,068 alleged election fraud cases in all 50 States from 2000 to 2012 out of 146 million registered voters identified only 10 cases of voter impersonation fraud. You don't enact laws because of 10 cases of fraud in 12 years unless you have an ulterior motive. Fortunately, the courts have been right through the most blatantly discriminatory state laws.    In addition to the state-sanctioned voter ID laws, the Brennan Center for Justice and others have continued to document cases of voter intimidation, deliberate spreading of misinformation to keep minorities and students from voting, and other attempts to target and disenfranchise minorities and young voters. These threats to tens of hundreds of thousands of eligible voters were either orchestrated by public officials or lone troublemakers should be taken as seriously as a cyber threat.    Mr. Chairman, I know my remarks have moved beyond the intended scope of this hearing, but you know well how passionate I am about this issue. It is my hope that with this hearing that we can have a thoughtful discussion of the challenges and actions that have been taken related to cybersecurity and other voting technology issues, while avoiding adding to the noise and confusion surrounding these issues just 8 weeks from the crucial election.    With that, I'd like to welcome our witnesses for being here today. And this is a distinguished panel. I look forward to hearing from our collective experience and expertise.    Thank you, Mr. Chairman. I yield back.</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t>412630</t>
   </si>
   <si>
-    <t>Ralph Lee Abraham</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Abraham. Thank you, Mr. Chairman. It is my pleasure to recognize Hon. Tom Schedler, the Secretary of State from the great State of Louisiana. Secretary Schedler was appointed to the position in 2010 and was reelected in 2011 to serve a four-year term. He is past President of the National Association of Secretaries of State with his term ending this past July. And he served as Co-Chairman for the National Association of Secretaries of State Task Force on Emergency Preparedness for Elections.    As Secretary of State of Louisiana, he is committed to protecting and defending the integrity of every election in the State and has worked diligently to streamline the election process. The result is been a more efficient and cost-effective system with Louisiana becoming one of the first States to implement online voter registration and the first State in the country to launch a smartphone app for voters to use to get timely election information. My pleasure for you to be here.    I yield back, Mr. Chairman.</t>
   </si>
   <si>
@@ -88,36 +79,24 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Romine</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Romine. Thank you, Mr. Chairman. Chairman Smith, Ranking Member Johnson, and Members of the Committee, thank you for the opportunity to discuss NIST's role in voting systems.    Improving voting systems requires an interdisciplinary, collaborative approach that must be accurate and reliable, yet cost-effective, secure, and usable and accessible to all voters. The design and standards must consider the diversity of voting processes and ballots across the States, and none of these can be considered in a vacuum.    NIST expertise in testing, certification, information security, trusted networks, software quality, and usability and accessibility provides the foundation for our voting systems work, but our experience working in multi-stakeholder processes is critical. We must bring together election officials, industry, technical experts, and advocacy groups to address this challenge.    The NIST role is limited to the research to develop standards, tests, guidelines, best practices, and assistance with laboratory accreditation that the Election Assistance Commission, or EAC, and state and local jurisdictions may use at their discretion.    Since the signing of the Help America Vote Act, or HAVA, NIST has partnered with the EAC to develop the science, tools, and standards necessary to improve the accuracy, reliability, usability, accessibility, and security of voting systems. Our joint accomplishments include new voting system guidelines; guidelines in support of Military and Overseas Voters Empowerment Act, or MOVE; and the Uniformed and Overseas Citizens Absentee Voting Act, or UOCAVA; the establishment of accredited testing laboratories for voting system equipment and a testing and certification program upon which many States depend.    The Technical Guidelines Development Committee, or TGDC, a federal advisory committee to the EAC chaired by NIST, assists in the development of the voluntary voting system guidelines. In 2015, the EAC approved the TGDC's latest recommendations, Voluntary Voting System Guidance, or VVSG 1.1, with new requirements for human factors, audit and election logging, and new security requirements on access control, physical security, auditing, cryptography, software quality, and software integrity.    To support overseas and military voters, including the use of the Internet to cast absentee ballots, NIST research concluded that widely deployed security technologies and procedures could mitigate many of the risks associated with electronic blank ballot delivery but the risks associated with casting doubts over the Internet were more serious and challenging to overcome.    Based on that research, NIST documented security best practices and considerations for election officials on the use of electronic mail or the Web to expedite transmission of voter registration materials and blank ballots. In early 2011, NIST analyzed current and emerging technologies that may mitigate risk to Internet voting.    We also identified several areas where research and technological improvements are needed to ensure the security, usability, and accessibility of Internet voting. Many of these challenges are not unique to Internet voting such as strong identity management, protection against malware, and the resiliency of Internet-connected systems. The unique challenges of Internet voting are the requirements and expectations, notably ensuring the integrity of the voting process while protecting privacy.    NIST and the EAC have recently organized public working groups that provide an open and transparent development process and give the EAC and state election officials the opportunity to work directly with academic, industry, and Federal Government experts. The working groups help inform NIST, the EAC, and the TGDC in updating the VVSG.    There are three election working groups--pre-election, election, and postelection--that are providing insight on election processes. These groups are supported by four technical groups--cybersecurity, human factors, interoperability, and testing. The election working groups take input from the technical groups to inform requirements development for consideration by the TGDC.    Ensuring that voting systems are secure and auditable is critical to providing trust and confidence in the voting process. The cybersecurity technical working group is developing guidelines and best practices to secure voting systems. The group is focused on election security best practices, including physical security, auditing, and contingency planning.    To provide a firm foundation for next-generation security guidelines, NIST is researching threats and vulnerabilities to voting systems and the best practices and technologies that can mitigate those risks. As part of that research, NIST has catalogued published vulnerabilities and weaknesses in voting system software. The goal is to understand the types of vulnerabilities by looking at historical evidence and creating a voter-specific list of vulnerabilities and mapping these with weaknesses to requirements in the VVSG. This work has identified issues that should be addressed in future security requirements and test methods and by voting system manufacturers.    NIST is committed to continue collaborating with the EAC and others to fulfill our role defined in HAVA, MOVE, and UOCAVA. We leverage our research, which is applicable to a wide variety of organizations and used by industry and governments throughout the world. Active collaboration between the public and private sectors is the only way to effectively meet this challenge, leveraging each participant's roles and responsibilities.    Thank you for the opportunity to testify today on NIST's work in voting systems, and I would be happy to answer any questions you may have.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Smith. Thank you, Dr. Romine. And, Secretary Schedler.</t>
   </si>
   <si>
-    <t>Schedler</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Schedler. Thank you. I want to thank the Committee, Chairman Smith, and Ranking Member Johnson for the invitation to address you today. I think it's very important for you to hear from actual election officials who actually conduct elections. And our job--at least in my opinion, is to make voting easier, more accessible, and to make it tough to cheat.    But in recent weeks, reports on cyber attacks have voters questioning whether their vote will actually count, and that in my opinion is more damaging than the potential for hacking.    We are all on high alert. This whole exercise has put every one of the 50 States working on national security issues with all national agencies in an effort to try to improve the system we have or to recheck the system we have. But the fact is States are always evaluating security measures and emergency plans. As I speak, in Louisiana I'm dealing with 30 precincts from the record flooding that we had in the Baton Rouge area on contingency plans and what I'm going to do to move those precincts, notify voters, and the like.    So yes, we--are we concerned about potential interference into our election process? We absolutely are, but voter fraud is much, much harder to accomplish than you may think. As was pointed out by Ranking Member Johnson, we have some 10,000 jurisdictions of voting in this country hundreds of thousands of voting machines in various locations. The complexity of our election system has reinforced the election process, and what I mean by that is if you think about the complexity of that, it makes it very difficult for any player to go in and actually disrupt a federal national election.    Specifically, States have developed online registration some 31 States have the best practice to improve customer service. They've also developed different ways to guard against intrusion. In Louisiana, for instance, information collected through our online voter registration system does not flow directly into our statewide system. Instead of voter information is sent from a Web site to each parish register in the State of Louisiana. The register has direct access to the database, not the voter.    While it would certainly be disruptive to have registration systems hacked, as we saw in Arizona and Illinois, voters could still vote and Election Day would still occur. Anyone who discovers an issue with their voter registration status still has the option of a provisional ballot. And remember, no voter information was added or deleted in Arizona or Illinois, and most States have electronic paper ballot backups.    In terms of voting machines, it's important to note that so far scientists have only succeeded in hacking voting machines when favorable conditions existed that do not exist on Election Day, including plenty of time and unfettered access. There is no evidence that ballot manipulation has ever occurred in the United States.    No State--and I want to make this clear--has Internet voting, and our voting machines are never connected to the Internet. In Louisiana, all machines are stored in secure, state-owned warehouses. All maintenance, including most up-to-date software applications, as well as programming, is performed by vetted Secretary of State employees, not outside contractors.    Additionally, before every election, Louisiana publicly performs a test-and-seal process in which we demonstrate that each machine is working properly before it is locked with a tamperproof seal. That testing process is also done at the end of each Election Day to demonstrate that each machine is functioning postelection, which is required by roughly 60 percent of the States. And, if necessary, the majority of States can make paper ballots and audits available if a recount or review becomes necessary.    Finally, please keep in mind that timing is critical. Elections are no longer one-day events and voting is occurring right now as we speak. Ballots have been printed, absentee ballots are in the mail, and in-person voting begins in days in some States. To say this is an inopportune time for election officials to be discussing this subject instead of real-time preparation is an understatement. The train has left the station.    During a call with Secretary Jeh Johnson in mid-August, my colleagues and I were assured there would be no intent to declare an election system as part of the critical infrastructure before the November elections. Some Secretaries, including myself, have been very vocal that no matter when that may occur, such a designation would undercut the Constitutional role of the States and local jurisdictions. It would only complicate our ability to properly secure elections.    As of today, there is not enough clear information on what the designation would mean or why it's necessary. States get what we need through existing networks, including the United States Elections Assistance Commission and the National Institute of Standards and Technology, which already identify the kind of testing and certification.    And most standards needed to reveal signs of tampering, there is a role for Congress in this. Most States purchase their voting machines using federal dollars, HAVA, back in 2005, but there is little interest on the Hill when it comes to helping replace our aging systems. I suggest you revisit HAVA and see how an investment in voting technology could benefit our nation in the long run.    In the meantime, we have received a sobering wake-up call on the serious nature of cyber attacks. States will continue to take a proactive approach to secure our election systems, and at the end of the day, I want to assure every American--and I speak for all of my colleagues, the Secretaries of State Association--that your next President will be determined by the vote of the people and every vote will count.    Thank you for allowing me my comments.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Smith. Thank you, Secretary Schedler.    And, Mr. Becker.</t>
   </si>
   <si>
-    <t>Becker</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Becker. Good morning, and thank you, Mr. Chairman, and Ranking Member Johnson, for the opportunity to testify today on the important issue of the security of our election system.    My name is David Becker and I'm the Executive Director of the Center for Election Innovation and Research, a nonprofit working in partnership with election officials like Secretary Schedler and technology leaders to improve our system of elections.    My experience in elections goes back about two decades, starting with a seven-year stint as a senior trial attorney with the voting section of the Department of Justice under both the Clinton and George W. Bush Administrations where I observed dozens of elections in hundreds of precincts nationwide and then served for several years as the Director of the Elections Program at Pew where I oversaw efforts to use technology to improve the efficiency and security of elections.    As an initial matter, we should be clear about the election systems that are in place and what they each do and what if any relative vulnerabilities might exist. Voter registration databases or a key election system have been in the news a lot recently. As you noted, there was a breach of the Illinois voter registration database where personal data from several thousand voters appears to have been accessed. In Arizona, it appears the State successfully detected an attempted hack of their state voter registration database and prevented access of any private data.    But in both cases initial investigations suggest no voter data was changed. The voter registration lists remained intact with the primary goal of the hack seemingly being to access personal data for the purposes related to identity theft rather than to manipulate the voter lists themselves.    While we should continue to be vigilant about these centralized databases, to my knowledge, every State creates a regular backup of their voter registration lists, and most States on a daily basis, so that should anything go wrong with the databases themselves, the list could be reconstructed prior to the election.    And while there have also been concerns expressed about the hack of the Democratic National Committee email system, that system is completely different than the election systems in place. That was an attack on a centralized email server and a nongovernmental entity which bears no analogy to the highly regulated systems in place in the States to administer elections.    The voting machines themselves include paper ballots or electronic devices on which votes are cast and include vote tabulation equipment. And with regard to those systems, I can say that while no system is 100 percent hack-proof, elections in this country are secure, perhaps as secure as they've ever been, and that voters should have confidence that their votes will be counted and counted accurately.    There are four primary reasons that voters should feel confident in our election system. First, our election system is highly decentralized. Each State governs the administration of elections independently, and within each State there are many individual election jurisdictions--counties, towns, and the like--totalling approximately 10,000 nationwide that actually administer those elections.    Even within many States, counties use different systems and dozens of different technologies to conduct elections, and within those thousands of election jurisdictions there are well over 100,000 Election Day precincts and polling places where ballots are cast and collected, and that is just on Election Day, not taking into account the thousands of early-voting sites and tens of millions of mail ballots that will be utilized this November. Thus, there isn't a single or concentrated point of entry for a hacker. Rather, there are thousands of points hacker would have to successfully navigate to manipulate the results of a national election.    Second, voting machines are kept securely. These machines are subjected to rigorous protocols for chain of custody and testing in every jurisdiction. Machines are held under lock and key with additional protections in place to ensure that nobody without proper credentials can access the devices. It's exceedingly difficult to gain unauthorized access to even one of these machines and nearly impossible to gain access to more than one. Prior to every election, not just federal elections, but every time the equipment is used, these machines go through a series of tests called logic and accuracy tests to confirm that they are working as intended, recording and tabulating votes accurately.    Third, unlike voter registration databases or email systems, I know of no jurisdiction where voting machines are connected to the Internet. This makes it nearly impossible for a remote hacker, whether in Moscow, Russia, or Moscow, Idaho, to access the equipment and plan malicious code or otherwise hack the system. Without connectivity, it would require a hacker to have unfettered physical access and enough time to sabotage one machine just to impact the results on one device in one polling place. To manipulate election results on a state or national scale would require a conspiracy of literally hundreds of thousands and for that massive conspiracy to go undetected.    Which brings us to the fourth reason: Even if hundreds of thousands of conspirators operated undetected on a diverse range of systems, defeating the testing and chain-of-custody protections in place, it would likely have no effect on the vast majority of election results nationwide because well over 75 percent of voters vote on paper ballots or on a device that creates a paper record.    And in most States--32 plus DC. as of 2014, there is a postelection audit requirement that mandates States match the paper record to the digital record, and if a discrepancy exists, recount the paper ballots for use as the official record. The States that require such an audit include the battleground States of Arizona, Colorado, Florida, Nevada, New Mexico, North Carolina, Ohio, Pennsylvania, Virginia, and Wisconsin, among others, so even if a grand conspiracy were viable, a postelection audit requirement would almost certainly discover it prior to the election results becoming official.    There's been a lot of hyperbole surrounding the selection, but the processes in place to ensure the integrity of our election system should not become part of the political rhetoric. There are few loudly seeking to sow distrust in the system, but there are far more working quietly and collaboratively at the federal, state, and local level and election officials across the political spectrum like Secretary Schedler here who are working to secure our voting systems and reassure voters that the selection will accurately reflect voters' choices.    And voters can play a role as well, by attending pre-election voting machine tests and especially volunteering to serve as poll workers to see the process firsthand, whether it's federal officials offering assistance and resources to the States, state and local officials sharing best practices, or citizens serving as poll workers, this cooperation and diligence will protect our elections in 2016 and safeguard future elections as well.    Thank you and I'd be happy to take any questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Smith. Thank you, Mr. Becker.    And, Dr. Wallach.</t>
   </si>
   <si>
-    <t>Wallach</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Wallach. Chairman Smith, Ranking Member Johnson, Members of the Committee, it's a great honor to speak to you today about our nation's voting systems and the threats they face this November and the steps we might take to mitigate those threats.    My name is Dan Wallach. I've been a Professor in the Department of Computer Science at Rice University in Houston for 18 years. And my main message for you here today is that our election systems face credible cyber threats from our nation-state adversaries, and it's prudent to adopt contingency plans before November to mitigate these threats.    In particular, we've learned that Russia may have been behind leaked DNC emails for the explicit purpose of manipulating our elections. We've also learned of attacks on voter registration databases in Arizona and Illinois, and that's only the ones we know about. There might be more.    We must prepare for the possibility that Russia or other sophisticated adversaries will use their cyber skills to attack our elections, and they need not attack every county in every State. It's sufficient for them to go after battleground States where a small nudge can have a large impact. The decentralization that we've heard about is helpful but it's not sufficient.    My number one concern is our voter registration databases because they are online, and if an attacker can damage or destroy the voter registration databases, they could disenfranchise a significant number of voters, leading to long lines and other difficulties. The provisional voting process requires filling out affidavits, it's slow, it takes time, and that wouldn't work for million voters.    Paperless electronic voting systems and their tabulation systems are also vulnerable. Despite not generally being connected to the Internet, these systems were unfortunately never engineered with security in mind, and expert analyses by myself and others have found unacceptable security issues.    Our biggest nation-state adversaries have the capability to execute attacks against these systems. For example, Russia was behind an attack of this kind directed at Ukraine's 2014 election where a hacked tabulation system would have reported results favorable to Russia. The Ukrainians were lucky enough to catch this.    Our options between now and November are largely limited to contingency planning. If we're lucky, we might detect attacks before Election Day, but it's important to make plans now for recovering from unforeseen cyber disasters in the same way that we make plans for natural disasters, including running drills and exercises and having plans written out and thought through.    If, for example, we were to conclude on Election Day that our computer systems had been unreliable, a contingency plan might be to rapidly print millions of paper ballots and rerun the election the next day. Legislation passed in most States following 2012's Hurricane Sandy appears to allow for such mitigations. The details vary State to State.    Between now and November we should also be aggressive at deploying expert teams to do security audits of relevant networks and systems particularly in battleground States. If something has been hacked, the sooner we know about it, the better. And my understanding is a critical infrastructure designation would allow States to request assistance from the Federal Government in this role.    We must also plan for the next few years after November's election is complete. Roughly 1/3--we've heard today--we've also heard 1/4. I'm not sure what the real number is. Roughly 1/3 of American voters this fall will use aging electronic voting systems with proven insecure designs. Some new hybrid voting system designs with electronic user interfaces and printed paper ballots are being designed by Los Angeles County, California, and Travis County. That's Austin, Texas. These have the potential to substantially reduce costs and improve the security of our elections. Federal support could advance their deployment nationwide, and if we do nothing, keeping our aging systems in service holds our elections at risk.    As a quick note, our immediate future should not include Internet voting. It's hard enough to protect the online systems that we already have. Moving additional voters online increases the risks. Traditional hand-marked paper ballots and these new hybrid systems from Los Angeles and Austin are our best paths forward.    As Don Rumsfeld once said, you go to war with the army you have, not the army you might want or wish to have at a later time. We face a similar situation this November with our systems for voter registration casting and tabulation. None of them are ready to rebuff attacks from our nation-state adversaries, nor can we replace them in time to make a difference.    Despite this, we can pursue a number of pragmatic steps such as verifying the integrity of election database backups, and we can make contingency plans for how we may respond if and when we do detect attacks against our elections. If we can somehow determine that tampering with an election voting system did take place, we should have plans in place to print paper ballots or otherwise keep the election going. The sooner we can create and agree on these plans, the more resilient our elections will be to foreign attack.    And even if nothing goes wrong and all this turned out to be nothing but hot air, we should treat these events as a warning. With modest investment, we can improve our practices and replace obsolete and insecure equipment, defeating future attacks like this before they ever get off the ground.    Thank you.</t>
   </si>
   <si>
@@ -232,9 +211,6 @@
     <t>400343</t>
   </si>
   <si>
-    <t>Dana Rohrabacher</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rohrabacher. Thank you very much. And thank you, Mr. Chairman, for holding this hearing. I didn't expect it would be as interesting as it's been, so thank you to the witnesses as well.    Let me just start off with one question in terms of getting a sense of information here on one issue the broader issue of whether or not the integrity of our voting process and our election system will be maintained is really vital to the very nature of our country. I mean, this goes to the heart of whether or not we are who we say we are. If we don't have an election process that has integrity, we don't have an election process.    First let me ask this. How many examples do we have of where the Russians have actually--or Russian-based, whoever it is in Russia, have hacked in to our election system?</t>
   </si>
   <si>
@@ -301,9 +277,6 @@
     <t>400245</t>
   </si>
   <si>
-    <t>Zoe Lofgren</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Lofgren. Thank you, Mr. Chairman.    It was interesting to listen to my colleague from California inquire about the role of the Russians in this election. And, I think, you know, the focus of this hearing is on the voting systems, but really the question is about the election and it's not limited to voting systems. And it's pretty clear that the Russians have attacked--have engaged in a cyber attack on the DNC and the DCCC. We've received reports on that. I thought it was unfortunate that the Republican candidate for President either thought it was a good idea or was making a joke about it--we don't know which. But this is a serious matter.    What we've been told is not just that the material has been taken but that the pattern of the Russians is not just to release material but to forge material and to alter it in an effort to try and impact outcomes of elections. And that's certainly--they have a history of cyber attacks in an attempt to discredit Democratic elections in Ukraine, in Bulgaria, Romania, the Philippines. So this is something I think we need to take very seriously. To my knowledge, this is the first time the Russians have actually so boldly attacked a Western democracy, in fact the most important democracy in the world.    Now, I think the focus of this hearing is unduly limited, and I agree that a large-scale attack on distributed voting precincts is unlikely to succeed, although I do think we've underestimated the potential impact of air-gap tabulation systems, and I think that is something to be concerned about.    But the question isn't really whether the actual vote tabulations could be altered because I don't think that's very likely, but whether chaos could be induced into the system. That is the goal of the attack on the Democratic Party, and I think it may also be the goal of the cyber attacks on the state systems.    What could be done with this voter information? Obviously, there are backups on the database so no one can alter who can actually vote. But what would happen if emails were sent to all of those voters or are just the Democratic voters telling them the date of the election had been changed or their precinct had been changed? Wouldn't that create chaos in a system if even a small percentage of those voters believed an email misadvising them?    I do think that there's a vulnerability in the overseas in system. The House Administration Committee has the primary jurisdiction over election systems, and I remember we had a hearing talking about our lack of concern, the lack of concern that electoral systems professionals had about emailing the ballot to overseas voters provided that the ballot itself was mailed in. The more we think about it, with these hackings, if you altered the ballot on the email, you would again create chaos in the electoral system.    So I think that's really the goal here is not necessarily to impact the tabulation, although there may be efforts to do it, but to create long lines if people go to the wrong places to create chaos and to attack the faith and the confidence that the American people have in their elections systems through long lines and all sorts of mischief.    I do think that to downplay the role that the Russians have had in this is a huge mistake when you take a look at what they did to the DNC and the DCCC. And I'll just close with this. I do think that it's been disappointing. The reaction has been disappointing that if you attack one of the major political parties, somehow that's okay if it could be to your advantage.    I like to think if the Russians had attacked the Republican National Committee the Democrats would be as outraged as Republicans because it's an attack on America. It's not an attack on a party. And the fact that there hasn't been outrage expressed at all levels of both parties about the effort of the Russians to disrupt this election is--it's sad commentary on leaders of that party and it also is very chilling when you think about what could happen come this November.    And I see that my time is expired. I yield back, Mr. Chairman.</t>
   </si>
   <si>
@@ -331,9 +304,6 @@
     <t>412501</t>
   </si>
   <si>
-    <t>Suzanne Bonamici</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Bonamici. Thank you very much, Mr. Chairman. Thank you all for your testimony.    Mr. Becker, you said in your testimony you emphasize that voters should feel confident in our voting system, and we certainly have heard a lot of messages about the importance of that confidence here today and how it will lead to greater participation, and certainly that's good for democracy. I think just getting the information out to the public that the voting machines themselves are not connected to the Internet is going to help. I think there's a misconception about that.    Well, I'm from Oregon, and we all vote by mail in Oregon. We've done that for more than a decade. It's a very secure process. It also makes it very easy for Oregonians to vote. The Secretary of State's office mails paper ballots to each and every registered voter a couple of weeks before the election, along with a voter's pamphlet with all the information about the candidates and the initiatives on the ballot so Oregonians have plenty of time to not only study the issues but then fill out their ballots and get them back in to be tallied by the local election offices.    And there are privacy and security measures at each step of the way. I was a trained election observer years ago and it gave me a lot of confidence to see each step of the way and to watch that tally happen at the elections office.    So I wanted to ask you a little bit about are there lessons to be learned from a State like Oregon that does use vote by mail with a paper ballot for everyone and really with a focus on the two different issues, there's the voter records and then there are actually what happens at the--with the ballot and the tally, the voting machine, if you want to talk a little bit about the lessons that can be learned from that system.    And then I also want to ask, Dr. Romine, I know NIST has mostly concentrated its work to date in standards development for the actual voting machines, but you're now, I understand, working to identify systems dealing with the voter registration systems. So--and just before you respond, both of you--I know Dr. Wallach mentioned something about the possibility of this selective disenfranchising of voters by deleting them from the database. It's really easy in Oregon for anybody to check whether they're still in the database, and getting the ballot early means that there would be an early notice that, well, maybe there was a problem assuming that somebody did get through a very secure system.    So, Mr. Becker, do you want to start and then Dr. Romine?</t>
   </si>
   <si>
@@ -367,9 +337,6 @@
     <t>412624</t>
   </si>
   <si>
-    <t>Barry Loudermilk</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Loudermilk. Thank you, Mr. Chairman, and thank all the witnesses for being here today, a very important issue.    And rightly, we should be concerned about the integrity of our election system because we're only as good as the integrity of the selection system. After spending 30 years in the IT business, this is something that is very important to me and an area that I do understand at least from the technological side.    Another area that I think we have to be very conscious of is the federal involvement because typically whatever we get involved with doesn't run as well as if a State is doing it themselves, so I want to be very conscious of whatever role the Federal Government plays is very limited to--especially in an authority stance.    But I do understand that we do have some things that we can do as far as setting recommended standards, but recently, the Secretary of Homeland Security has reported saying that DHS is considering whether the state electoral apparatus should be designated as critical infrastructure. Dr. Romine?</t>
   </si>
   <si>
@@ -451,9 +418,6 @@
     <t>412319</t>
   </si>
   <si>
-    <t>Paul Tonko</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Tonko. Thank you, Mr. Chair. And welcome to the panelists, and thank you for your information.    Mr. Becker, the 2014 Presidential Commission on Election Administration recommended that audits of voting equipment be conducted after each election as part of a comprehensive audit program. According to verified voting, approximately 3/4 of voters in November will be using voting machines with a paper record of their vote. And I'm--just share a concern perhaps about the potential for mishaps or potential hacking for the voting machines with no paper trail. Can you please describe the role auditability plays in elections and the impact individual voters casting their vote?</t>
   </si>
   <si>
@@ -487,9 +451,6 @@
     <t>412675</t>
   </si>
   <si>
-    <t>Warren Davidson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Davidson. Thank you, Mr. Chairman.    Dr. Wallach, your testimony addresses the possibility of inserting malware into voting machines themselves. Can you elaborate on how malware could be loaded onto machines that are not connected to the Internet and further explain what it means that each and every single voting machine has to be manipulated? Or is there a different way where you could just hack one machine and that would transmit a bug to other machines in the precinct, again, even though they're not connected to an Internet?</t>
   </si>
   <si>
@@ -544,9 +505,6 @@
     <t>412263</t>
   </si>
   <si>
-    <t>Donna F. Edwards</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Edwards. Thank you, Mr. Chairman. And thank you to the witnesses. I apologize I had to step out for a bit, but I came back because this is a really important subject to me.    I just want to be clear--and a yes or no answer from each of the witnesses would really help. Is it your--do you concur in the belief from the Department of Homeland Security that it was Russian state actors who hacked into both the Illinois--or attempted Arizona and also the party hacking that occurred earlier in the year? Dr. Romine?</t>
   </si>
   <si>
@@ -613,9 +571,6 @@
     <t>412674</t>
   </si>
   <si>
-    <t>Darin LaHood</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. LaHood. Thank you, Mr. Chairman. I want to thank the witnesses for being here today.    In my State of Illinois we've had a lot of changes in the last several years. We now have same-day voting registration, 40 days of early voting, extended grace periods, absentee voting has a lengthy period of time. And couple that with some of the issues we've had particularly in Chicago over the years with issues related to voting there, I guess in terms of educating poll workers or training poll workers or election judges and looking at methods, particularly as it relates to the integrity of voting on Election Day and as we look at potential hacking of machines, I mean, is there a good model out there that has worked in terms of how we educate folks that are there at the polls?    I'll also mention in a prior life I was Assistant State's Attorney in Cook County in Chicago. On Election Day, we would go out as prosecutors and be there at the voting booth. And a lot of times we didn't know what we're looking for or what we were supposed to be doing.    And I guess, Secretary Schedler, can you maybe shed a little light on examples of what we need to be doing in terms of educating and working with our folks that are at the polls on Election Day?</t>
   </si>
   <si>
@@ -640,18 +595,12 @@
     <t>412655</t>
   </si>
   <si>
-    <t>Brian Babin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Babin. [Presiding] Thank you.    I now recognize the gentleman from Virginia, Mr. Beyer.</t>
   </si>
   <si>
     <t>412657</t>
   </si>
   <si>
-    <t>Donald S. Beyer, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Beyer. Thank you, Mr. Chairman.    Mr. Becker, I think in your comments you stated and wrote that there are 20 States in this Electronic Registration Information Center that you helped found. Why not 30? And then how do we motivate the other 30 to be part of it? And is there any suggestion that we'd ever require that?</t>
   </si>
   <si>
@@ -799,9 +748,6 @@
     <t>400630</t>
   </si>
   <si>
-    <t>Daniel Lipinski</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lipinski. Thank you. And I thank all the witnesses for your testimony. And I have--I'm not sure if I can get to my questions because some other ideas came to mind as you're talking here. So let me ask a couple things here so I better understand. I know States--everyone does it differently, and the idea of not having our--the machines directly connected to the Internet makes sense.    But, for example, if you do have a voting machine, you're voting, usually then at the end of the day when the votes are--polls closed, votes are tabulated, how are those votes then communicated then from the polling place? So--because I would expect that they are done oftentimes over some sort of connection to the 'net.    And then the other part of that is I go online election night and I'm looking at the results coming in so I can go online and connect in at least to see the results that they're displaying. So hopefully, I'm not displaying too much lack of understanding here, but aren't there some connections there to the Internet that are going on?</t>
   </si>
   <si>
@@ -847,9 +793,6 @@
     <t>412422</t>
   </si>
   <si>
-    <t>Randy Hultgren</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hultgren. Thank you all for being here. This is such an important subject. I don't know if anything more important than making sure that our ability to vote is protected and that we feel confident that everything is being done to make it open and accessible to everybody and using technology to do that but at the same time making sure that we're protecting information and protecting that confidence that our voting booths are accurate and are being abused in any way. So I really do want to thank you for being her. Thank you for your work.    It's certainly clear the nature of our increasingly connected world has opened up new vulnerabilities which were originally unforeseen. It's also brought about new great things that we all can agree improve our lives, the functionality of our democracy, and it does it in ways in which we can exchange goods and services with each other as well.    A little over a year ago, I had a chance to visit Estonia with a group of my colleagues and saw many of the innovative ways they are integrating technology into their government services. They actually have online voting in many elections and most forms and bureaucratic paperwork are submitted online in more easily searchable formats.    While this is encouraging to me, I also realize that Estonia has as many people as New Hampshire or Maine, so there are things they can do differently than we as a country of almost 330 million people can do. So our States still need to have the flexibility to innovate and the Federal Government's role should be assisting but not passing down new unfunded mandates on them which we hear--I hear so often from my constituents and my local government officials and the challenges they face.    Dr. Wallach, if I could address my first question to you. Regarding the recent cyber attacks on the voter registration databases in my State Illinois and also in Arizona, why would an individual or an organization want to hack into States' voter registration information? Are they looking for the same kind of information other data breaches in the retail sector or just personal information or what's the purpose behind these attacks?</t>
   </si>
   <si>
@@ -887,9 +830,6 @@
   </si>
   <si>
     <t>412574</t>
-  </si>
-  <si>
-    <t>Randy K. Weber, Sr.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Weber. I thank the gentleman.    I want to do something before we get into the election discussion today regarding the earlier comment from one of the members on the other side of the aisle that she was appalled that there was no Republican outrage over the Russians' apparent hacking of the DCCC. I would note that there's probably about the same amount of outrage from the Democrats over Hillary Clinton's dumping of a bunch of emails and destroying evidence in a federal investigation.    Having said that, in full disclosure I was an election clerk and election judge and a precinct chair for about 16 years in Texas in Brazoria County when we had good old-fashioned paper ballots. I was one of the few who raised my hand when they said, look, we want to pass a resolution encouraging electronic voting. I said I don't. I like the paper system. I don't trust the Internet. That was back in the '90s. It seems as if we've come full circle now that you all are saying that there are some States who are literally considering going back to paper ballots.    So here's a question for, I guess, all of you one at a time. We'll start with you, Dr. Romine. Well, first of all, let's do it this way. How many States have paper?</t>
@@ -1381,11 +1321,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1407,11 +1345,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1431,13 +1367,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1459,11 +1393,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1483,13 +1415,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1511,11 +1441,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1535,13 +1463,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1563,11 +1489,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1587,13 +1511,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
         <v>23</v>
-      </c>
-      <c r="G10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1615,11 +1537,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1639,13 +1559,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1667,11 +1585,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1691,13 +1607,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1719,11 +1633,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1743,13 +1655,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1771,11 +1681,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1795,13 +1703,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1823,11 +1729,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1847,13 +1751,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1875,11 +1777,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1899,13 +1799,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1927,11 +1825,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1951,13 +1847,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1979,11 +1873,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2003,13 +1895,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2031,11 +1921,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2055,13 +1943,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2083,11 +1969,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2107,13 +1991,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2135,11 +2017,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2159,13 +2039,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>23</v>
-      </c>
-      <c r="G32" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2187,11 +2065,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2211,13 +2087,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>23</v>
-      </c>
-      <c r="G34" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2239,11 +2113,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2263,13 +2135,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>23</v>
-      </c>
-      <c r="G36" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2291,11 +2161,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2315,13 +2183,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2341,13 +2207,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>23</v>
-      </c>
-      <c r="G39" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2367,13 +2231,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2393,13 +2255,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>23</v>
-      </c>
-      <c r="G41" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2419,13 +2279,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>23</v>
-      </c>
-      <c r="G42" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2445,13 +2303,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>23</v>
-      </c>
-      <c r="G43" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2471,13 +2327,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>15</v>
-      </c>
-      <c r="G44" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2497,13 +2351,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>23</v>
-      </c>
-      <c r="G45" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2523,13 +2375,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>23</v>
-      </c>
-      <c r="G46" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2549,13 +2399,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>23</v>
-      </c>
-      <c r="G47" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2575,13 +2423,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>23</v>
-      </c>
-      <c r="G48" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2601,13 +2447,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G49" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2629,11 +2473,9 @@
       <c r="F50" t="s">
         <v>11</v>
       </c>
-      <c r="G50" t="s">
-        <v>12</v>
-      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2653,13 +2495,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>71</v>
-      </c>
-      <c r="G51" t="s">
-        <v>72</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2679,13 +2519,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>23</v>
-      </c>
-      <c r="G52" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2705,13 +2543,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>71</v>
-      </c>
-      <c r="G53" t="s">
-        <v>72</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2731,13 +2567,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>23</v>
-      </c>
-      <c r="G54" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2757,13 +2591,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>71</v>
-      </c>
-      <c r="G55" t="s">
-        <v>72</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2783,13 +2615,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>23</v>
-      </c>
-      <c r="G56" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2809,13 +2639,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
+        <v>64</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
         <v>71</v>
-      </c>
-      <c r="G57" t="s">
-        <v>72</v>
-      </c>
-      <c r="H57" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2835,13 +2663,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>23</v>
-      </c>
-      <c r="G58" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2861,13 +2687,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>71</v>
-      </c>
-      <c r="G59" t="s">
-        <v>72</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2887,13 +2711,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>23</v>
-      </c>
-      <c r="G60" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2913,13 +2735,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>71</v>
-      </c>
-      <c r="G61" t="s">
-        <v>72</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2939,13 +2759,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>23</v>
-      </c>
-      <c r="G62" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2965,13 +2783,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>71</v>
-      </c>
-      <c r="G63" t="s">
-        <v>72</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2991,13 +2807,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>23</v>
-      </c>
-      <c r="G64" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3017,13 +2831,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>71</v>
-      </c>
-      <c r="G65" t="s">
-        <v>72</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3043,13 +2855,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>23</v>
-      </c>
-      <c r="G66" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3069,13 +2879,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>23</v>
-      </c>
-      <c r="G67" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3095,13 +2903,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>23</v>
-      </c>
-      <c r="G68" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3121,13 +2927,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>23</v>
-      </c>
-      <c r="G69" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3147,13 +2951,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>71</v>
-      </c>
-      <c r="G70" t="s">
-        <v>72</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3175,11 +2977,9 @@
       <c r="F71" t="s">
         <v>11</v>
       </c>
-      <c r="G71" t="s">
-        <v>12</v>
-      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3199,13 +2999,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>94</v>
-      </c>
-      <c r="G72" t="s">
-        <v>95</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3227,11 +3025,9 @@
       <c r="F73" t="s">
         <v>11</v>
       </c>
-      <c r="G73" t="s">
-        <v>12</v>
-      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3251,13 +3047,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>19</v>
-      </c>
-      <c r="G74" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3277,13 +3071,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>23</v>
-      </c>
-      <c r="G75" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3303,13 +3095,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>19</v>
-      </c>
-      <c r="G76" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3329,13 +3119,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>23</v>
-      </c>
-      <c r="G77" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3355,13 +3143,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>19</v>
-      </c>
-      <c r="G78" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3383,11 +3169,9 @@
       <c r="F79" t="s">
         <v>11</v>
       </c>
-      <c r="G79" t="s">
-        <v>12</v>
-      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3407,13 +3191,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>104</v>
-      </c>
-      <c r="G80" t="s">
-        <v>105</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3433,13 +3215,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>23</v>
-      </c>
-      <c r="G81" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3459,13 +3239,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>104</v>
-      </c>
-      <c r="G82" t="s">
-        <v>105</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3485,13 +3263,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>23</v>
-      </c>
-      <c r="G83" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3511,13 +3287,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>104</v>
-      </c>
-      <c r="G84" t="s">
-        <v>105</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3537,13 +3311,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>23</v>
-      </c>
-      <c r="G85" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3563,13 +3335,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>104</v>
-      </c>
-      <c r="G86" t="s">
-        <v>105</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3589,13 +3359,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>23</v>
-      </c>
-      <c r="G87" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3615,13 +3383,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
+        <v>95</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
         <v>104</v>
-      </c>
-      <c r="G88" t="s">
-        <v>105</v>
-      </c>
-      <c r="H88" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3643,11 +3409,9 @@
       <c r="F89" t="s">
         <v>11</v>
       </c>
-      <c r="G89" t="s">
-        <v>12</v>
-      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3667,13 +3431,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>116</v>
-      </c>
-      <c r="G90" t="s">
-        <v>117</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3693,13 +3455,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>23</v>
-      </c>
-      <c r="G91" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3719,13 +3479,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>116</v>
-      </c>
-      <c r="G92" t="s">
-        <v>117</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3745,13 +3503,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>23</v>
-      </c>
-      <c r="G93" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3771,13 +3527,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>116</v>
-      </c>
-      <c r="G94" t="s">
-        <v>117</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3797,13 +3551,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>23</v>
-      </c>
-      <c r="G95" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3823,13 +3575,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>116</v>
-      </c>
-      <c r="G96" t="s">
-        <v>117</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3849,13 +3599,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>23</v>
-      </c>
-      <c r="G97" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3875,13 +3623,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>116</v>
-      </c>
-      <c r="G98" t="s">
-        <v>117</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3901,13 +3647,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>23</v>
-      </c>
-      <c r="G99" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3927,13 +3671,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>116</v>
-      </c>
-      <c r="G100" t="s">
+        <v>106</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
         <v>117</v>
-      </c>
-      <c r="H100" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3953,13 +3695,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>23</v>
-      </c>
-      <c r="G101" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3979,13 +3719,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>116</v>
-      </c>
-      <c r="G102" t="s">
-        <v>117</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4005,13 +3743,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>23</v>
-      </c>
-      <c r="G103" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4031,13 +3767,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>116</v>
-      </c>
-      <c r="G104" t="s">
-        <v>117</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4057,13 +3791,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>23</v>
-      </c>
-      <c r="G105" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4083,13 +3815,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>116</v>
-      </c>
-      <c r="G106" t="s">
-        <v>117</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4109,13 +3839,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>23</v>
-      </c>
-      <c r="G107" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4135,13 +3863,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>116</v>
-      </c>
-      <c r="G108" t="s">
-        <v>117</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4161,13 +3887,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>23</v>
-      </c>
-      <c r="G109" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4187,13 +3911,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>116</v>
-      </c>
-      <c r="G110" t="s">
-        <v>117</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4213,13 +3935,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>23</v>
-      </c>
-      <c r="G111" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4239,13 +3959,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>116</v>
-      </c>
-      <c r="G112" t="s">
-        <v>117</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4265,13 +3983,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>23</v>
-      </c>
-      <c r="G113" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4291,13 +4007,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>116</v>
-      </c>
-      <c r="G114" t="s">
-        <v>117</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4319,11 +4033,9 @@
       <c r="F115" t="s">
         <v>11</v>
       </c>
-      <c r="G115" t="s">
-        <v>12</v>
-      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4343,13 +4055,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>144</v>
-      </c>
-      <c r="G116" t="s">
-        <v>145</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4369,13 +4079,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>23</v>
-      </c>
-      <c r="G117" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4395,13 +4103,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>144</v>
-      </c>
-      <c r="G118" t="s">
-        <v>145</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4421,13 +4127,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>23</v>
-      </c>
-      <c r="G119" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4447,13 +4151,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>144</v>
-      </c>
-      <c r="G120" t="s">
-        <v>145</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4473,13 +4175,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>23</v>
-      </c>
-      <c r="G121" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4499,13 +4199,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>144</v>
-      </c>
-      <c r="G122" t="s">
-        <v>145</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4525,13 +4223,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>23</v>
-      </c>
-      <c r="G123" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4551,13 +4247,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>144</v>
-      </c>
-      <c r="G124" t="s">
-        <v>145</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4579,11 +4273,9 @@
       <c r="F125" t="s">
         <v>11</v>
       </c>
-      <c r="G125" t="s">
-        <v>12</v>
-      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4603,13 +4295,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>156</v>
-      </c>
-      <c r="G126" t="s">
-        <v>157</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4629,13 +4319,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>23</v>
-      </c>
-      <c r="G127" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4655,13 +4343,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>156</v>
-      </c>
-      <c r="G128" t="s">
-        <v>157</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4681,13 +4367,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>23</v>
-      </c>
-      <c r="G129" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4707,13 +4391,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>156</v>
-      </c>
-      <c r="G130" t="s">
-        <v>157</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4733,13 +4415,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>23</v>
-      </c>
-      <c r="G131" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4759,13 +4439,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>156</v>
-      </c>
-      <c r="G132" t="s">
-        <v>157</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4785,13 +4463,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>23</v>
-      </c>
-      <c r="G133" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4811,13 +4487,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>156</v>
-      </c>
-      <c r="G134" t="s">
-        <v>157</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4837,13 +4511,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>23</v>
-      </c>
-      <c r="G135" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4863,13 +4535,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>156</v>
-      </c>
-      <c r="G136" t="s">
-        <v>157</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4889,13 +4559,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>23</v>
-      </c>
-      <c r="G137" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4915,13 +4583,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>156</v>
-      </c>
-      <c r="G138" t="s">
+        <v>144</v>
+      </c>
+      <c r="G138" t="s"/>
+      <c r="H138" t="s">
         <v>157</v>
-      </c>
-      <c r="H138" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4941,13 +4607,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>23</v>
-      </c>
-      <c r="G139" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4967,13 +4631,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>156</v>
-      </c>
-      <c r="G140" t="s">
-        <v>157</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4993,13 +4655,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>23</v>
-      </c>
-      <c r="G141" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5019,13 +4679,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>156</v>
-      </c>
-      <c r="G142" t="s">
-        <v>157</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5047,11 +4705,9 @@
       <c r="F143" t="s">
         <v>11</v>
       </c>
-      <c r="G143" t="s">
-        <v>12</v>
-      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5071,13 +4727,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>175</v>
-      </c>
-      <c r="G144" t="s">
-        <v>176</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5097,13 +4751,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>23</v>
-      </c>
-      <c r="G145" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5123,13 +4775,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>175</v>
-      </c>
-      <c r="G146" t="s">
-        <v>176</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5149,13 +4799,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>23</v>
-      </c>
-      <c r="G147" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5175,13 +4823,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>175</v>
-      </c>
-      <c r="G148" t="s">
-        <v>176</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5201,13 +4847,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>23</v>
-      </c>
-      <c r="G149" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5227,13 +4871,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>175</v>
-      </c>
-      <c r="G150" t="s">
-        <v>176</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5253,13 +4895,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>23</v>
-      </c>
-      <c r="G151" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5279,13 +4919,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>175</v>
-      </c>
-      <c r="G152" t="s">
-        <v>176</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5305,13 +4943,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>23</v>
-      </c>
-      <c r="G153" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5331,13 +4967,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>175</v>
-      </c>
-      <c r="G154" t="s">
-        <v>176</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5357,13 +4991,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>23</v>
-      </c>
-      <c r="G155" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5383,13 +5015,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
+        <v>162</v>
+      </c>
+      <c r="G156" t="s"/>
+      <c r="H156" t="s">
         <v>175</v>
-      </c>
-      <c r="G156" t="s">
-        <v>176</v>
-      </c>
-      <c r="H156" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5409,13 +5039,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>23</v>
-      </c>
-      <c r="G157" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5435,13 +5063,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>175</v>
-      </c>
-      <c r="G158" t="s">
-        <v>176</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5461,13 +5087,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>23</v>
-      </c>
-      <c r="G159" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5487,13 +5111,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>175</v>
-      </c>
-      <c r="G160" t="s">
-        <v>176</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5513,13 +5135,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>23</v>
-      </c>
-      <c r="G161" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5539,13 +5159,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>175</v>
-      </c>
-      <c r="G162" t="s">
-        <v>176</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5565,13 +5183,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>23</v>
-      </c>
-      <c r="G163" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5593,11 +5209,9 @@
       <c r="F164" t="s">
         <v>11</v>
       </c>
-      <c r="G164" t="s">
-        <v>12</v>
-      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5617,13 +5231,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>198</v>
-      </c>
-      <c r="G165" t="s">
-        <v>199</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5643,13 +5255,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>23</v>
-      </c>
-      <c r="G166" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5669,13 +5279,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>198</v>
-      </c>
-      <c r="G167" t="s">
-        <v>199</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5695,13 +5303,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>23</v>
-      </c>
-      <c r="G168" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5721,13 +5327,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>198</v>
-      </c>
-      <c r="G169" t="s">
-        <v>199</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5747,13 +5351,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>23</v>
-      </c>
-      <c r="G170" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5773,13 +5375,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>198</v>
-      </c>
-      <c r="G171" t="s">
-        <v>199</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5799,13 +5399,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>207</v>
-      </c>
-      <c r="G172" t="s">
-        <v>208</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5825,13 +5423,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>210</v>
-      </c>
-      <c r="G173" t="s">
-        <v>211</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5851,13 +5447,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>23</v>
-      </c>
-      <c r="G174" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5877,13 +5471,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>210</v>
-      </c>
-      <c r="G175" t="s">
-        <v>211</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5903,13 +5495,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>23</v>
-      </c>
-      <c r="G176" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5929,13 +5519,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>210</v>
-      </c>
-      <c r="G177" t="s">
-        <v>211</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5955,13 +5543,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>23</v>
-      </c>
-      <c r="G178" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5981,13 +5567,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>210</v>
-      </c>
-      <c r="G179" t="s">
-        <v>211</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6007,13 +5591,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>23</v>
-      </c>
-      <c r="G180" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6033,13 +5615,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>210</v>
-      </c>
-      <c r="G181" t="s">
-        <v>211</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6059,13 +5639,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>23</v>
-      </c>
-      <c r="G182" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6085,13 +5663,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>210</v>
-      </c>
-      <c r="G183" t="s">
-        <v>211</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6111,13 +5687,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>207</v>
-      </c>
-      <c r="G184" t="s">
-        <v>208</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6137,13 +5711,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>23</v>
-      </c>
-      <c r="G185" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6163,13 +5735,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
+        <v>192</v>
+      </c>
+      <c r="G186" t="s"/>
+      <c r="H186" t="s">
         <v>207</v>
-      </c>
-      <c r="G186" t="s">
-        <v>208</v>
-      </c>
-      <c r="H186" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6189,13 +5759,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>23</v>
-      </c>
-      <c r="G187" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6215,13 +5783,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>207</v>
-      </c>
-      <c r="G188" t="s">
-        <v>208</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6241,13 +5807,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>23</v>
-      </c>
-      <c r="G189" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6267,13 +5831,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>207</v>
-      </c>
-      <c r="G190" t="s">
-        <v>208</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6293,13 +5855,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>23</v>
-      </c>
-      <c r="G191" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6319,13 +5879,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>207</v>
-      </c>
-      <c r="G192" t="s">
-        <v>208</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6345,13 +5903,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>23</v>
-      </c>
-      <c r="G193" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6371,13 +5927,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>207</v>
-      </c>
-      <c r="G194" t="s">
-        <v>208</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6397,13 +5951,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>23</v>
-      </c>
-      <c r="G195" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6423,13 +5975,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>207</v>
-      </c>
-      <c r="G196" t="s">
-        <v>208</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6449,13 +5999,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>23</v>
-      </c>
-      <c r="G197" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6475,13 +6023,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>207</v>
-      </c>
-      <c r="G198" t="s">
-        <v>208</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6501,13 +6047,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>23</v>
-      </c>
-      <c r="G199" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6527,13 +6071,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>207</v>
-      </c>
-      <c r="G200" t="s">
-        <v>208</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6553,13 +6095,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>23</v>
-      </c>
-      <c r="G201" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6579,13 +6119,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>207</v>
-      </c>
-      <c r="G202" t="s">
-        <v>208</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6605,13 +6143,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>23</v>
-      </c>
-      <c r="G203" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6631,13 +6167,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>207</v>
-      </c>
-      <c r="G204" t="s">
-        <v>208</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6657,13 +6191,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>23</v>
-      </c>
-      <c r="G205" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6683,13 +6215,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>207</v>
-      </c>
-      <c r="G206" t="s">
-        <v>208</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6709,13 +6239,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>23</v>
-      </c>
-      <c r="G207" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6735,13 +6263,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>207</v>
-      </c>
-      <c r="G208" t="s">
-        <v>208</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6761,13 +6287,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>23</v>
-      </c>
-      <c r="G209" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6787,13 +6311,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>207</v>
-      </c>
-      <c r="G210" t="s">
-        <v>208</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6813,13 +6335,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>23</v>
-      </c>
-      <c r="G211" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6839,13 +6359,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>207</v>
-      </c>
-      <c r="G212" t="s">
-        <v>208</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6865,13 +6383,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>23</v>
-      </c>
-      <c r="G213" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6891,13 +6407,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>207</v>
-      </c>
-      <c r="G214" t="s">
-        <v>208</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6917,13 +6431,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>23</v>
-      </c>
-      <c r="G215" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6943,13 +6455,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>207</v>
-      </c>
-      <c r="G216" t="s">
-        <v>208</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6969,13 +6479,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>23</v>
-      </c>
-      <c r="G217" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6995,13 +6503,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>207</v>
-      </c>
-      <c r="G218" t="s">
-        <v>208</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7021,13 +6527,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>23</v>
-      </c>
-      <c r="G219" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7047,13 +6551,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>207</v>
-      </c>
-      <c r="G220" t="s">
-        <v>208</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7073,13 +6575,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>23</v>
-      </c>
-      <c r="G221" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7099,13 +6599,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>207</v>
-      </c>
-      <c r="G222" t="s">
-        <v>208</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7125,13 +6623,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>23</v>
-      </c>
-      <c r="G223" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7151,13 +6647,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>207</v>
-      </c>
-      <c r="G224" t="s">
-        <v>208</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7177,13 +6671,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>23</v>
-      </c>
-      <c r="G225" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7203,13 +6695,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>207</v>
-      </c>
-      <c r="G226" t="s">
-        <v>208</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7229,13 +6719,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>260</v>
-      </c>
-      <c r="G227" t="s">
-        <v>261</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7255,13 +6743,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>23</v>
-      </c>
-      <c r="G228" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7281,13 +6767,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>260</v>
-      </c>
-      <c r="G229" t="s">
-        <v>261</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7307,13 +6791,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>23</v>
-      </c>
-      <c r="G230" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7333,13 +6815,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>23</v>
-      </c>
-      <c r="G231" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7359,13 +6839,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>260</v>
-      </c>
-      <c r="G232" t="s">
-        <v>261</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7385,13 +6863,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>23</v>
-      </c>
-      <c r="G233" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7411,13 +6887,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>260</v>
-      </c>
-      <c r="G234" t="s">
-        <v>261</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7437,13 +6911,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>23</v>
-      </c>
-      <c r="G235" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7463,13 +6935,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>260</v>
-      </c>
-      <c r="G236" t="s">
-        <v>261</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7489,13 +6959,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>23</v>
-      </c>
-      <c r="G237" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7515,13 +6983,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>260</v>
-      </c>
-      <c r="G238" t="s">
-        <v>261</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7541,13 +7007,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>23</v>
-      </c>
-      <c r="G239" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7567,13 +7031,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>207</v>
-      </c>
-      <c r="G240" t="s">
-        <v>208</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7593,13 +7055,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>276</v>
-      </c>
-      <c r="G241" t="s">
-        <v>277</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7619,13 +7079,11 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>23</v>
-      </c>
-      <c r="G242" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7645,13 +7103,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>276</v>
-      </c>
-      <c r="G243" t="s">
-        <v>277</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7671,13 +7127,11 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>23</v>
-      </c>
-      <c r="G244" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7697,13 +7151,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>276</v>
-      </c>
-      <c r="G245" t="s">
-        <v>277</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7723,13 +7175,11 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>23</v>
-      </c>
-      <c r="G246" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7749,13 +7199,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>276</v>
-      </c>
-      <c r="G247" t="s">
-        <v>277</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -7775,13 +7223,11 @@
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>23</v>
-      </c>
-      <c r="G248" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -7801,13 +7247,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>276</v>
-      </c>
-      <c r="G249" t="s">
-        <v>277</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7827,13 +7271,11 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>23</v>
-      </c>
-      <c r="G250" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7853,13 +7295,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>276</v>
-      </c>
-      <c r="G251" t="s">
-        <v>277</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -7879,13 +7319,11 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>207</v>
-      </c>
-      <c r="G252" t="s">
-        <v>208</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -7905,13 +7343,11 @@
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>290</v>
-      </c>
-      <c r="G253" t="s">
-        <v>291</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7931,13 +7367,11 @@
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>23</v>
-      </c>
-      <c r="G254" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7957,13 +7391,11 @@
         <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>290</v>
-      </c>
-      <c r="G255" t="s">
-        <v>291</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7983,13 +7415,11 @@
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>23</v>
-      </c>
-      <c r="G256" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8009,13 +7439,11 @@
         <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>290</v>
-      </c>
-      <c r="G257" t="s">
-        <v>291</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8035,13 +7463,11 @@
         <v>10</v>
       </c>
       <c r="F258" t="s">
-        <v>23</v>
-      </c>
-      <c r="G258" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8061,13 +7487,11 @@
         <v>10</v>
       </c>
       <c r="F259" t="s">
-        <v>290</v>
-      </c>
-      <c r="G259" t="s">
-        <v>291</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8087,13 +7511,11 @@
         <v>10</v>
       </c>
       <c r="F260" t="s">
-        <v>23</v>
-      </c>
-      <c r="G260" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8113,13 +7535,11 @@
         <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>290</v>
-      </c>
-      <c r="G261" t="s">
-        <v>291</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8139,13 +7559,11 @@
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>23</v>
-      </c>
-      <c r="G262" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8165,13 +7583,11 @@
         <v>10</v>
       </c>
       <c r="F263" t="s">
-        <v>290</v>
-      </c>
-      <c r="G263" t="s">
-        <v>291</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8191,13 +7607,11 @@
         <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>23</v>
-      </c>
-      <c r="G264" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8217,13 +7631,11 @@
         <v>10</v>
       </c>
       <c r="F265" t="s">
-        <v>290</v>
-      </c>
-      <c r="G265" t="s">
-        <v>291</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8243,13 +7655,11 @@
         <v>10</v>
       </c>
       <c r="F266" t="s">
-        <v>23</v>
-      </c>
-      <c r="G266" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8269,13 +7679,11 @@
         <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>290</v>
-      </c>
-      <c r="G267" t="s">
-        <v>291</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8295,13 +7703,11 @@
         <v>10</v>
       </c>
       <c r="F268" t="s">
-        <v>23</v>
-      </c>
-      <c r="G268" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8321,13 +7727,11 @@
         <v>10</v>
       </c>
       <c r="F269" t="s">
-        <v>290</v>
-      </c>
-      <c r="G269" t="s">
-        <v>291</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="G269" t="s"/>
       <c r="H269" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8347,13 +7751,11 @@
         <v>10</v>
       </c>
       <c r="F270" t="s">
-        <v>23</v>
-      </c>
-      <c r="G270" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G270" t="s"/>
       <c r="H270" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8373,13 +7775,11 @@
         <v>10</v>
       </c>
       <c r="F271" t="s">
+        <v>271</v>
+      </c>
+      <c r="G271" t="s"/>
+      <c r="H271" t="s">
         <v>290</v>
-      </c>
-      <c r="G271" t="s">
-        <v>291</v>
-      </c>
-      <c r="H271" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8399,13 +7799,11 @@
         <v>10</v>
       </c>
       <c r="F272" t="s">
-        <v>23</v>
-      </c>
-      <c r="G272" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G272" t="s"/>
       <c r="H272" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8425,13 +7823,11 @@
         <v>10</v>
       </c>
       <c r="F273" t="s">
-        <v>290</v>
-      </c>
-      <c r="G273" t="s">
-        <v>291</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="G273" t="s"/>
       <c r="H273" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8451,13 +7847,11 @@
         <v>10</v>
       </c>
       <c r="F274" t="s">
-        <v>23</v>
-      </c>
-      <c r="G274" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G274" t="s"/>
       <c r="H274" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8477,13 +7871,11 @@
         <v>10</v>
       </c>
       <c r="F275" t="s">
-        <v>290</v>
-      </c>
-      <c r="G275" t="s">
-        <v>291</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="G275" t="s"/>
       <c r="H275" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8503,13 +7895,11 @@
         <v>10</v>
       </c>
       <c r="F276" t="s">
-        <v>23</v>
-      </c>
-      <c r="G276" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G276" t="s"/>
       <c r="H276" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8529,13 +7919,11 @@
         <v>10</v>
       </c>
       <c r="F277" t="s">
-        <v>290</v>
-      </c>
-      <c r="G277" t="s">
-        <v>291</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="G277" t="s"/>
       <c r="H277" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8555,13 +7943,11 @@
         <v>10</v>
       </c>
       <c r="F278" t="s">
-        <v>207</v>
-      </c>
-      <c r="G278" t="s">
-        <v>208</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G278" t="s"/>
       <c r="H278" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -8581,13 +7967,11 @@
         <v>10</v>
       </c>
       <c r="F279" t="s">
-        <v>290</v>
-      </c>
-      <c r="G279" t="s">
-        <v>291</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="G279" t="s"/>
       <c r="H279" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -8607,13 +7991,11 @@
         <v>10</v>
       </c>
       <c r="F280" t="s">
-        <v>23</v>
-      </c>
-      <c r="G280" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G280" t="s"/>
       <c r="H280" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -8633,13 +8015,11 @@
         <v>10</v>
       </c>
       <c r="F281" t="s">
-        <v>290</v>
-      </c>
-      <c r="G281" t="s">
-        <v>291</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="G281" t="s"/>
       <c r="H281" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -8659,13 +8039,11 @@
         <v>10</v>
       </c>
       <c r="F282" t="s">
-        <v>23</v>
-      </c>
-      <c r="G282" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G282" t="s"/>
       <c r="H282" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -8685,13 +8063,11 @@
         <v>10</v>
       </c>
       <c r="F283" t="s">
-        <v>290</v>
-      </c>
-      <c r="G283" t="s">
-        <v>291</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="G283" t="s"/>
       <c r="H283" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -8711,13 +8087,11 @@
         <v>10</v>
       </c>
       <c r="F284" t="s">
-        <v>207</v>
-      </c>
-      <c r="G284" t="s">
-        <v>208</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G284" t="s"/>
       <c r="H284" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
